--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.954676393695</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H2">
-        <v>41.954676393695</v>
+        <v>139.442244</v>
       </c>
       <c r="I2">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J2">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>11.4436197207072</v>
+        <v>0.1112246666666667</v>
       </c>
       <c r="N2">
-        <v>11.4436197207072</v>
+        <v>0.333674</v>
       </c>
       <c r="O2">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089436</v>
       </c>
       <c r="P2">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089434</v>
       </c>
       <c r="Q2">
-        <v>480.113362154777</v>
+        <v>5.169805702717334</v>
       </c>
       <c r="R2">
-        <v>480.113362154777</v>
+        <v>46.52825132445601</v>
       </c>
       <c r="S2">
-        <v>0.1177837300907567</v>
+        <v>0.001180240379053335</v>
       </c>
       <c r="T2">
-        <v>0.1177837300907567</v>
+        <v>0.001180240379053334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.954676393695</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H3">
-        <v>41.954676393695</v>
+        <v>139.442244</v>
       </c>
       <c r="I3">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J3">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.90056595894971</v>
+        <v>11.825228</v>
       </c>
       <c r="N3">
-        <v>1.90056595894971</v>
+        <v>35.475684</v>
       </c>
       <c r="O3">
-        <v>0.1424265222753237</v>
+        <v>0.851329675722</v>
       </c>
       <c r="P3">
-        <v>0.1424265222753237</v>
+        <v>0.8513296757219999</v>
       </c>
       <c r="Q3">
-        <v>79.7376297726077</v>
+        <v>549.6454427105441</v>
       </c>
       <c r="R3">
-        <v>79.7376297726077</v>
+        <v>4946.808984394896</v>
       </c>
       <c r="S3">
-        <v>0.01956162065780169</v>
+        <v>0.1254812623438935</v>
       </c>
       <c r="T3">
-        <v>0.01956162065780169</v>
+        <v>0.1254812623438935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>191.098315235944</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H4">
-        <v>191.098315235944</v>
+        <v>139.442244</v>
       </c>
       <c r="I4">
-        <v>0.6255909326351914</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J4">
-        <v>0.6255909326351914</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.4436197207072</v>
+        <v>0.03793733333333333</v>
       </c>
       <c r="N4">
-        <v>11.4436197207072</v>
+        <v>0.113812</v>
       </c>
       <c r="O4">
-        <v>0.8575734777246764</v>
+        <v>0.002731209722503793</v>
       </c>
       <c r="P4">
-        <v>0.8575734777246764</v>
+        <v>0.002731209722503793</v>
       </c>
       <c r="Q4">
-        <v>2186.85644882797</v>
+        <v>1.763355630458667</v>
       </c>
       <c r="R4">
-        <v>2186.85644882797</v>
+        <v>15.870200674128</v>
       </c>
       <c r="S4">
-        <v>0.5364901917329848</v>
+        <v>0.0004025651324970423</v>
       </c>
       <c r="T4">
-        <v>0.5364901917329848</v>
+        <v>0.0004025651324970423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>191.098315235944</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H5">
-        <v>191.098315235944</v>
+        <v>139.442244</v>
       </c>
       <c r="I5">
-        <v>0.6255909326351914</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J5">
-        <v>0.6255909326351914</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.90056595894971</v>
+        <v>1.915914</v>
       </c>
       <c r="N5">
-        <v>1.90056595894971</v>
+        <v>5.747742000000001</v>
       </c>
       <c r="O5">
-        <v>0.1424265222753237</v>
+        <v>0.1379317544094067</v>
       </c>
       <c r="P5">
-        <v>0.1424265222753237</v>
+        <v>0.1379317544094067</v>
       </c>
       <c r="Q5">
-        <v>363.1949527500759</v>
+        <v>89.05311582367202</v>
       </c>
       <c r="R5">
-        <v>363.1949527500759</v>
+        <v>801.4780424130482</v>
       </c>
       <c r="S5">
-        <v>0.08910074090220658</v>
+        <v>0.02033037394816729</v>
       </c>
       <c r="T5">
-        <v>0.08910074090220658</v>
+        <v>0.02033037394816729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.5368862309677</v>
+        <v>192.830597</v>
       </c>
       <c r="H6">
-        <v>57.5368862309677</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I6">
-        <v>0.1883562095966909</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J6">
-        <v>0.1883562095966909</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>11.4436197207072</v>
+        <v>0.1112246666666667</v>
       </c>
       <c r="N6">
-        <v>11.4436197207072</v>
+        <v>0.333674</v>
       </c>
       <c r="O6">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089436</v>
       </c>
       <c r="P6">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089434</v>
       </c>
       <c r="Q6">
-        <v>658.4302459407886</v>
+        <v>21.44751887445933</v>
       </c>
       <c r="R6">
-        <v>658.4302459407886</v>
+        <v>193.027669870134</v>
       </c>
       <c r="S6">
-        <v>0.1615292897148723</v>
+        <v>0.004896359604547689</v>
       </c>
       <c r="T6">
-        <v>0.1615292897148723</v>
+        <v>0.004896359604547687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.5368862309677</v>
+        <v>192.830597</v>
       </c>
       <c r="H7">
-        <v>57.5368862309677</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I7">
-        <v>0.1883562095966909</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J7">
-        <v>0.1883562095966909</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.90056595894971</v>
+        <v>11.825228</v>
       </c>
       <c r="N7">
-        <v>1.90056595894971</v>
+        <v>35.475684</v>
       </c>
       <c r="O7">
-        <v>0.1424265222753237</v>
+        <v>0.851329675722</v>
       </c>
       <c r="P7">
-        <v>0.1424265222753237</v>
+        <v>0.8513296757219999</v>
       </c>
       <c r="Q7">
-        <v>109.3526473545395</v>
+        <v>2280.265774901116</v>
       </c>
       <c r="R7">
-        <v>109.3526473545395</v>
+        <v>20522.39197411004</v>
       </c>
       <c r="S7">
-        <v>0.02682691988181863</v>
+        <v>0.5205730925433171</v>
       </c>
       <c r="T7">
-        <v>0.02682691988181863</v>
+        <v>0.5205730925433169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.8786084407789</v>
+        <v>192.830597</v>
       </c>
       <c r="H8">
-        <v>14.8786084407789</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I8">
-        <v>0.04870750701955932</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J8">
-        <v>0.04870750701955932</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>11.4436197207072</v>
+        <v>0.03793733333333333</v>
       </c>
       <c r="N8">
-        <v>11.4436197207072</v>
+        <v>0.113812</v>
       </c>
       <c r="O8">
-        <v>0.8575734777246764</v>
+        <v>0.002731209722503793</v>
       </c>
       <c r="P8">
-        <v>0.8575734777246764</v>
+        <v>0.002731209722503793</v>
       </c>
       <c r="Q8">
-        <v>170.265136969578</v>
+        <v>7.315478635254665</v>
       </c>
       <c r="R8">
-        <v>170.265136969578</v>
+        <v>65.83930771729199</v>
       </c>
       <c r="S8">
-        <v>0.04177026618606257</v>
+        <v>0.001670086609423513</v>
       </c>
       <c r="T8">
-        <v>0.04177026618606257</v>
+        <v>0.001670086609423513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.8786084407789</v>
+        <v>192.830597</v>
       </c>
       <c r="H9">
-        <v>14.8786084407789</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I9">
-        <v>0.04870750701955932</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J9">
-        <v>0.04870750701955932</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.90056595894971</v>
+        <v>1.915914</v>
       </c>
       <c r="N9">
-        <v>1.90056595894971</v>
+        <v>5.747742000000001</v>
       </c>
       <c r="O9">
-        <v>0.1424265222753237</v>
+        <v>0.1379317544094067</v>
       </c>
       <c r="P9">
-        <v>0.1424265222753237</v>
+        <v>0.1379317544094067</v>
       </c>
       <c r="Q9">
-        <v>28.2777767190862</v>
+        <v>369.446840420658</v>
       </c>
       <c r="R9">
-        <v>28.2777767190862</v>
+        <v>3325.021563785922</v>
       </c>
       <c r="S9">
-        <v>0.006937240833496748</v>
+        <v>0.0843428368592163</v>
       </c>
       <c r="T9">
-        <v>0.006937240833496748</v>
+        <v>0.08434283685921629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60.030993</v>
+      </c>
+      <c r="H10">
+        <v>180.092979</v>
+      </c>
+      <c r="I10">
+        <v>0.1903634318482028</v>
+      </c>
+      <c r="J10">
+        <v>0.1903634318482028</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1112246666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.333674</v>
+      </c>
+      <c r="O10">
+        <v>0.008007360146089436</v>
+      </c>
+      <c r="P10">
+        <v>0.008007360146089434</v>
+      </c>
+      <c r="Q10">
+        <v>6.676927186094001</v>
+      </c>
+      <c r="R10">
+        <v>60.09234467484601</v>
+      </c>
+      <c r="S10">
+        <v>0.001524308557454112</v>
+      </c>
+      <c r="T10">
+        <v>0.001524308557454111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>60.030993</v>
+      </c>
+      <c r="H11">
+        <v>180.092979</v>
+      </c>
+      <c r="I11">
+        <v>0.1903634318482028</v>
+      </c>
+      <c r="J11">
+        <v>0.1903634318482028</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.825228</v>
+      </c>
+      <c r="N11">
+        <v>35.475684</v>
+      </c>
+      <c r="O11">
+        <v>0.851329675722</v>
+      </c>
+      <c r="P11">
+        <v>0.8513296757219999</v>
+      </c>
+      <c r="Q11">
+        <v>709.880179291404</v>
+      </c>
+      <c r="R11">
+        <v>6388.921613622637</v>
+      </c>
+      <c r="S11">
+        <v>0.1620620387046575</v>
+      </c>
+      <c r="T11">
+        <v>0.1620620387046575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60.030993</v>
+      </c>
+      <c r="H12">
+        <v>180.092979</v>
+      </c>
+      <c r="I12">
+        <v>0.1903634318482028</v>
+      </c>
+      <c r="J12">
+        <v>0.1903634318482028</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03793733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.113812</v>
+      </c>
+      <c r="O12">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="P12">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="Q12">
+        <v>2.277415791772</v>
+      </c>
+      <c r="R12">
+        <v>20.496742125948</v>
+      </c>
+      <c r="S12">
+        <v>0.0005199224558729998</v>
+      </c>
+      <c r="T12">
+        <v>0.0005199224558729996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60.030993</v>
+      </c>
+      <c r="H13">
+        <v>180.092979</v>
+      </c>
+      <c r="I13">
+        <v>0.1903634318482028</v>
+      </c>
+      <c r="J13">
+        <v>0.1903634318482028</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.915914</v>
+      </c>
+      <c r="N13">
+        <v>5.747742000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="P13">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="Q13">
+        <v>115.014219922602</v>
+      </c>
+      <c r="R13">
+        <v>1035.127979303418</v>
+      </c>
+      <c r="S13">
+        <v>0.02625716213021814</v>
+      </c>
+      <c r="T13">
+        <v>0.02625716213021814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>16.00705666666667</v>
+      </c>
+      <c r="H14">
+        <v>48.02117</v>
+      </c>
+      <c r="I14">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="J14">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1112246666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.333674</v>
+      </c>
+      <c r="O14">
+        <v>0.008007360146089436</v>
+      </c>
+      <c r="P14">
+        <v>0.008007360146089434</v>
+      </c>
+      <c r="Q14">
+        <v>1.780379542064445</v>
+      </c>
+      <c r="R14">
+        <v>16.02341587858</v>
+      </c>
+      <c r="S14">
+        <v>0.0004064516050343009</v>
+      </c>
+      <c r="T14">
+        <v>0.0004064516050343008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>16.00705666666667</v>
+      </c>
+      <c r="H15">
+        <v>48.02117</v>
+      </c>
+      <c r="I15">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="J15">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.825228</v>
+      </c>
+      <c r="N15">
+        <v>35.475684</v>
+      </c>
+      <c r="O15">
+        <v>0.851329675722</v>
+      </c>
+      <c r="P15">
+        <v>0.8513296757219999</v>
+      </c>
+      <c r="Q15">
+        <v>189.2870946922534</v>
+      </c>
+      <c r="R15">
+        <v>1703.58385223028</v>
+      </c>
+      <c r="S15">
+        <v>0.04321328213013201</v>
+      </c>
+      <c r="T15">
+        <v>0.043213282130132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>16.00705666666667</v>
+      </c>
+      <c r="H16">
+        <v>48.02117</v>
+      </c>
+      <c r="I16">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="J16">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03793733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.113812</v>
+      </c>
+      <c r="O16">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="P16">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="Q16">
+        <v>0.6072650444488888</v>
+      </c>
+      <c r="R16">
+        <v>5.46538540004</v>
+      </c>
+      <c r="S16">
+        <v>0.0001386355247102377</v>
+      </c>
+      <c r="T16">
+        <v>0.0001386355247102377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>16.00705666666667</v>
+      </c>
+      <c r="H17">
+        <v>48.02117</v>
+      </c>
+      <c r="I17">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="J17">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.915914</v>
+      </c>
+      <c r="N17">
+        <v>5.747742000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="P17">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="Q17">
+        <v>30.66814396646</v>
+      </c>
+      <c r="R17">
+        <v>276.01329569814</v>
+      </c>
+      <c r="S17">
+        <v>0.007001381471805003</v>
+      </c>
+      <c r="T17">
+        <v>0.007001381471805002</v>
       </c>
     </row>
   </sheetData>
